--- a/storage/app/xlsx/seed_cidades_pe.xlsx
+++ b/storage/app/xlsx/seed_cidades_pe.xlsx
@@ -23,7 +23,7 @@
     <t>ABREU-LIMENSE</t>
   </si>
   <si>
-    <t>1382ebdd-8abf-4ce7-925a-ac057e252e77</t>
+    <t>9377b82f-3706-48bf-a182-fbf20aae6c1e</t>
   </si>
   <si>
     <t>AFOGADOS DA INGAZEIRA</t>

--- a/storage/app/xlsx/seed_cidades_pe.xlsx
+++ b/storage/app/xlsx/seed_cidades_pe.xlsx
@@ -23,7 +23,7 @@
     <t>ABREU-LIMENSE</t>
   </si>
   <si>
-    <t>9377b82f-3706-48bf-a182-fbf20aae6c1e</t>
+    <t>dfa6a283-17d2-41b4-a1bc-1a1904377dbe</t>
   </si>
   <si>
     <t>AFOGADOS DA INGAZEIRA</t>

--- a/storage/app/xlsx/seed_cidades_pe.xlsx
+++ b/storage/app/xlsx/seed_cidades_pe.xlsx
@@ -23,7 +23,7 @@
     <t>ABREU-LIMENSE</t>
   </si>
   <si>
-    <t>dfa6a283-17d2-41b4-a1bc-1a1904377dbe</t>
+    <t>79107340-74c9-4a0f-ba78-cb80acfe283e</t>
   </si>
   <si>
     <t>AFOGADOS DA INGAZEIRA</t>

--- a/storage/app/xlsx/seed_cidades_pe.xlsx
+++ b/storage/app/xlsx/seed_cidades_pe.xlsx
@@ -23,7 +23,7 @@
     <t>ABREU-LIMENSE</t>
   </si>
   <si>
-    <t>79107340-74c9-4a0f-ba78-cb80acfe283e</t>
+    <t>6c4f671b-583b-4eeb-873c-a3146b9b54bd</t>
   </si>
   <si>
     <t>AFOGADOS DA INGAZEIRA</t>

--- a/storage/app/xlsx/seed_cidades_pe.xlsx
+++ b/storage/app/xlsx/seed_cidades_pe.xlsx
@@ -23,7 +23,7 @@
     <t>ABREU-LIMENSE</t>
   </si>
   <si>
-    <t>6c4f671b-583b-4eeb-873c-a3146b9b54bd</t>
+    <t>246ab43c-80dc-4d68-8540-4e0169caa50a</t>
   </si>
   <si>
     <t>AFOGADOS DA INGAZEIRA</t>

--- a/storage/app/xlsx/seed_cidades_pe.xlsx
+++ b/storage/app/xlsx/seed_cidades_pe.xlsx
@@ -23,7 +23,7 @@
     <t>ABREU-LIMENSE</t>
   </si>
   <si>
-    <t>246ab43c-80dc-4d68-8540-4e0169caa50a</t>
+    <t>1b1e8059-dff6-4e6d-8644-623a18af9755</t>
   </si>
   <si>
     <t>AFOGADOS DA INGAZEIRA</t>
